--- a/predictions полгода до/Прогнозы_ETS_EM12dt.xlsx
+++ b/predictions полгода до/Прогнозы_ETS_EM12dt.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23718545.01197273</v>
+        <v>23132333.65793723</v>
       </c>
       <c r="C2" t="n">
-        <v>26217449.3657124</v>
+        <v>19584052.78101213</v>
       </c>
       <c r="D2" t="n">
-        <v>23491983.11002327</v>
+        <v>14901711.69172543</v>
       </c>
       <c r="E2" t="n">
-        <v>19095433.78279391</v>
+        <v>19286911.10536646</v>
       </c>
       <c r="F2" t="n">
-        <v>23805500.17432984</v>
+        <v>18702760.81177603</v>
       </c>
       <c r="G2" t="n">
-        <v>23328416.82744851</v>
+        <v>14479040.0261436</v>
       </c>
       <c r="H2" t="n">
-        <v>19088050.54416507</v>
+        <v>19796155.37826502</v>
       </c>
       <c r="I2" t="n">
-        <v>24533697.95170642</v>
+        <v>18490987.29056336</v>
       </c>
       <c r="J2" t="n">
-        <v>23248431.04983446</v>
+        <v>16763936.27015709</v>
       </c>
       <c r="K2" t="n">
-        <v>21643242.81116682</v>
+        <v>12972944.99548516</v>
       </c>
       <c r="L2" t="n">
-        <v>17849627.86228484</v>
+        <v>16238364.22058346</v>
       </c>
       <c r="M2" t="n">
-        <v>21267438.74339053</v>
+        <v>15131405.68361863</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11232989.46565948</v>
+        <v>9170087.952037359</v>
       </c>
       <c r="C3" t="n">
-        <v>11740505.4900556</v>
+        <v>8880180.953128207</v>
       </c>
       <c r="D3" t="n">
-        <v>12210027.65420249</v>
+        <v>8646014.694372373</v>
       </c>
       <c r="E3" t="n">
-        <v>12631049.35412503</v>
+        <v>8452563.654171335</v>
       </c>
       <c r="F3" t="n">
-        <v>13004279.7842346</v>
+        <v>8321805.835694821</v>
       </c>
       <c r="G3" t="n">
-        <v>13365899.59320292</v>
+        <v>8143972.091078881</v>
       </c>
       <c r="H3" t="n">
-        <v>13614162.70220742</v>
+        <v>8047896.882183823</v>
       </c>
       <c r="I3" t="n">
-        <v>13889097.07526075</v>
+        <v>8053754.996527639</v>
       </c>
       <c r="J3" t="n">
-        <v>14223408.08900532</v>
+        <v>7898063.784510573</v>
       </c>
       <c r="K3" t="n">
-        <v>14353691.16179177</v>
+        <v>7881182.721673951</v>
       </c>
       <c r="L3" t="n">
-        <v>14588997.12969981</v>
+        <v>7805511.018623053</v>
       </c>
       <c r="M3" t="n">
-        <v>14734988.67871498</v>
+        <v>7763522.728737244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5128709.076871356</v>
+        <v>11626370.22491092</v>
       </c>
       <c r="C4" t="n">
-        <v>5149205.497982722</v>
+        <v>11652645.73388061</v>
       </c>
       <c r="D4" t="n">
-        <v>5169721.644145916</v>
+        <v>11677930.68024124</v>
       </c>
       <c r="E4" t="n">
-        <v>5189359.231530665</v>
+        <v>11702767.56953157</v>
       </c>
       <c r="F4" t="n">
-        <v>5208662.662508633</v>
+        <v>11727283.74116986</v>
       </c>
       <c r="G4" t="n">
-        <v>5227758.094780363</v>
+        <v>11750983.41281197</v>
       </c>
       <c r="H4" t="n">
-        <v>5246143.218706381</v>
+        <v>11774535.28465994</v>
       </c>
       <c r="I4" t="n">
-        <v>5264490.0670092</v>
+        <v>11797370.21845508</v>
       </c>
       <c r="J4" t="n">
-        <v>5282222.514618882</v>
+        <v>11820208.70458948</v>
       </c>
       <c r="K4" t="n">
-        <v>5300056.898403334</v>
+        <v>11842151.77043177</v>
       </c>
       <c r="L4" t="n">
-        <v>5317040.998948188</v>
+        <v>11864068.51504591</v>
       </c>
       <c r="M4" t="n">
-        <v>5334065.519119445</v>
+        <v>11885215.34371728</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3941431.993270524</v>
+        <v>19499616.71453783</v>
       </c>
       <c r="C5" t="n">
-        <v>5489012.984854333</v>
+        <v>21107245.0538904</v>
       </c>
       <c r="D5" t="n">
-        <v>7005640.036178493</v>
+        <v>21675806.10129977</v>
       </c>
       <c r="E5" t="n">
-        <v>8491932.272749392</v>
+        <v>24570108.72027984</v>
       </c>
       <c r="F5" t="n">
-        <v>9948496.436431177</v>
+        <v>46258449.467421</v>
       </c>
       <c r="G5" t="n">
-        <v>11375927.13324839</v>
+        <v>15153233.8583382</v>
       </c>
       <c r="H5" t="n">
-        <v>12774807.07622508</v>
+        <v>26380202.53359061</v>
       </c>
       <c r="I5" t="n">
-        <v>14145707.34945476</v>
+        <v>25674449.61371515</v>
       </c>
       <c r="J5" t="n">
-        <v>15489187.65144706</v>
+        <v>28555200.91427007</v>
       </c>
       <c r="K5" t="n">
-        <v>16805803.9970512</v>
+        <v>33068401.55515256</v>
       </c>
       <c r="L5" t="n">
-        <v>18096129.38113413</v>
+        <v>31325352.67995329</v>
       </c>
       <c r="M5" t="n">
-        <v>19360633.20285194</v>
+        <v>32199199.98521985</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7629188.712832213</v>
+        <v>1784293.015387652</v>
       </c>
       <c r="C6" t="n">
-        <v>7487226.189585993</v>
+        <v>2370025.868752451</v>
       </c>
       <c r="D6" t="n">
-        <v>8388210.532282853</v>
+        <v>758265.8691026787</v>
       </c>
       <c r="E6" t="n">
-        <v>9172460.186748745</v>
+        <v>2921024.554071978</v>
       </c>
       <c r="F6" t="n">
-        <v>10933316.89134554</v>
+        <v>1383142.08212998</v>
       </c>
       <c r="G6" t="n">
-        <v>27395177.63827763</v>
+        <v>964974.9975198575</v>
       </c>
       <c r="H6" t="n">
-        <v>5839691.695610849</v>
+        <v>2971667.184045278</v>
       </c>
       <c r="I6" t="n">
-        <v>10966201.56908062</v>
+        <v>3387469.235986063</v>
       </c>
       <c r="J6" t="n">
-        <v>8337046.373021636</v>
+        <v>1998871.219715507</v>
       </c>
       <c r="K6" t="n">
-        <v>9158737.783846362</v>
+        <v>5587443.224139314</v>
       </c>
       <c r="L6" t="n">
-        <v>14033387.50572676</v>
+        <v>882196.1201524208</v>
       </c>
       <c r="M6" t="n">
-        <v>11418590.70941273</v>
+        <v>2223352.171584736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1988680.324849661</v>
+        <v>8373135.321088487</v>
       </c>
       <c r="C7" t="n">
-        <v>2326476.854925618</v>
+        <v>8416774.870300833</v>
       </c>
       <c r="D7" t="n">
-        <v>2997341.684701046</v>
+        <v>8459927.898738487</v>
       </c>
       <c r="E7" t="n">
-        <v>3010916.685019928</v>
+        <v>8501408.956990656</v>
       </c>
       <c r="F7" t="n">
-        <v>3161367.129835891</v>
+        <v>8542985.778010434</v>
       </c>
       <c r="G7" t="n">
-        <v>4763927.907939789</v>
+        <v>8583015.916601822</v>
       </c>
       <c r="H7" t="n">
-        <v>1596684.209598181</v>
+        <v>8623342.963225883</v>
       </c>
       <c r="I7" t="n">
-        <v>3425981.619095045</v>
+        <v>8662168.851234721</v>
       </c>
       <c r="J7" t="n">
-        <v>3423036.466338856</v>
+        <v>8699282.563608443</v>
       </c>
       <c r="K7" t="n">
-        <v>3793683.745055391</v>
+        <v>8736832.117728874</v>
       </c>
       <c r="L7" t="n">
-        <v>2682446.631878425</v>
+        <v>8772681.583760832</v>
       </c>
       <c r="M7" t="n">
-        <v>4315865.290859443</v>
+        <v>8808729.586391756</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1795818.1898642</v>
+        <v>17965226.97100214</v>
       </c>
       <c r="C8" t="n">
-        <v>1496605.462278641</v>
+        <v>21412665.51276189</v>
       </c>
       <c r="D8" t="n">
-        <v>1306538.391802314</v>
+        <v>19377233.35438375</v>
       </c>
       <c r="E8" t="n">
-        <v>1569435.636654926</v>
+        <v>19620771.03347033</v>
       </c>
       <c r="F8" t="n">
-        <v>1951186.740169635</v>
+        <v>26701764.53768726</v>
       </c>
       <c r="G8" t="n">
-        <v>1956932.479384735</v>
+        <v>13819708.23721125</v>
       </c>
       <c r="H8" t="n">
-        <v>1079452.011225811</v>
+        <v>18017297.14433261</v>
       </c>
       <c r="I8" t="n">
-        <v>1474513.075756669</v>
+        <v>18965054.84521128</v>
       </c>
       <c r="J8" t="n">
-        <v>1466548.106865218</v>
+        <v>18643355.94783402</v>
       </c>
       <c r="K8" t="n">
-        <v>1525320.598014711</v>
+        <v>17746162.33317028</v>
       </c>
       <c r="L8" t="n">
-        <v>1573025.224997062</v>
+        <v>20564677.42646004</v>
       </c>
       <c r="M8" t="n">
-        <v>1653053.729496702</v>
+        <v>19470964.12235729</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2635680.075739075</v>
+        <v>29394848.21448972</v>
       </c>
       <c r="C9" t="n">
-        <v>2635984.332135681</v>
+        <v>28059238.16736989</v>
       </c>
       <c r="D9" t="n">
-        <v>2636282.160996472</v>
+        <v>27342357.53193097</v>
       </c>
       <c r="E9" t="n">
-        <v>2636573.698058336</v>
+        <v>27153330.05265669</v>
       </c>
       <c r="F9" t="n">
-        <v>2636859.076239349</v>
+        <v>36195016.87124911</v>
       </c>
       <c r="G9" t="n">
-        <v>2637138.4255252</v>
+        <v>20560229.23617288</v>
       </c>
       <c r="H9" t="n">
-        <v>2637411.831242883</v>
+        <v>21134394.63199937</v>
       </c>
       <c r="I9" t="n">
-        <v>2637778.279722772</v>
+        <v>28655367.15228837</v>
       </c>
       <c r="J9" t="n">
-        <v>2638068.647551374</v>
+        <v>27755232.55868455</v>
       </c>
       <c r="K9" t="n">
-        <v>2638254.122310719</v>
+        <v>30908670.05346001</v>
       </c>
       <c r="L9" t="n">
-        <v>2638611.442764258</v>
+        <v>32055942.8825325</v>
       </c>
       <c r="M9" t="n">
-        <v>2638524.828895994</v>
+        <v>31071482.20872808</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3043854.526002199</v>
+        <v>27185177.28974007</v>
       </c>
       <c r="C10" t="n">
-        <v>4507279.977182743</v>
+        <v>32478029.46167471</v>
       </c>
       <c r="D10" t="n">
-        <v>4840903.737679772</v>
+        <v>37665036.60934599</v>
       </c>
       <c r="E10" t="n">
-        <v>3631369.315094907</v>
+        <v>42748127.78918989</v>
       </c>
       <c r="F10" t="n">
-        <v>4381118.099438602</v>
+        <v>47729789.49538635</v>
       </c>
       <c r="G10" t="n">
-        <v>7958023.022697889</v>
+        <v>52611231.53505436</v>
       </c>
       <c r="H10" t="n">
-        <v>2006453.329121518</v>
+        <v>57395818.21168669</v>
       </c>
       <c r="I10" t="n">
-        <v>4178137.872980032</v>
+        <v>62084856.01223282</v>
       </c>
       <c r="J10" t="n">
-        <v>5364848.010519958</v>
+        <v>66679651.36230834</v>
       </c>
       <c r="K10" t="n">
-        <v>6077143.26103454</v>
+        <v>71182149.34782937</v>
       </c>
       <c r="L10" t="n">
-        <v>5601702.299444039</v>
+        <v>75594490.42260113</v>
       </c>
       <c r="M10" t="n">
-        <v>4751241.50872681</v>
+        <v>79919973.76005906</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3798346.328601553</v>
+        <v>15866452.37148222</v>
       </c>
       <c r="C11" t="n">
-        <v>2371425.176946315</v>
+        <v>16383677.86444868</v>
       </c>
       <c r="D11" t="n">
-        <v>3194738.534035148</v>
+        <v>16890402.31704768</v>
       </c>
       <c r="E11" t="n">
-        <v>1140722.136975755</v>
+        <v>17386608.2529094</v>
       </c>
       <c r="F11" t="n">
-        <v>5135338.252683474</v>
+        <v>17872785.15949804</v>
       </c>
       <c r="G11" t="n">
-        <v>1890941.636570972</v>
+        <v>18349906.47671718</v>
       </c>
       <c r="H11" t="n">
-        <v>1977312.303011836</v>
+        <v>18817645.51413347</v>
       </c>
       <c r="I11" t="n">
-        <v>3272429.73689139</v>
+        <v>19275352.88745947</v>
       </c>
       <c r="J11" t="n">
-        <v>3337086.597127167</v>
+        <v>19724358.71498831</v>
       </c>
       <c r="K11" t="n">
-        <v>2359488.732864692</v>
+        <v>20164048.93558207</v>
       </c>
       <c r="L11" t="n">
-        <v>9751378.904205581</v>
+        <v>20595627.89960247</v>
       </c>
       <c r="M11" t="n">
-        <v>262732.7116466421</v>
+        <v>21017537.24171177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>395587.443706392</v>
+        <v>40338256.37053253</v>
       </c>
       <c r="C12" t="n">
-        <v>-191075.313581924</v>
+        <v>45927441.25025176</v>
       </c>
       <c r="D12" t="n">
-        <v>-275971.0037167181</v>
+        <v>50201114.47342734</v>
       </c>
       <c r="E12" t="n">
-        <v>-482600.0997126967</v>
+        <v>47235482.7127071</v>
       </c>
       <c r="F12" t="n">
-        <v>-364546.5309649136</v>
+        <v>39791110.91751249</v>
       </c>
       <c r="G12" t="n">
-        <v>-212609.1279764725</v>
+        <v>39715887.90815019</v>
       </c>
       <c r="H12" t="n">
-        <v>-599488.2946734957</v>
+        <v>41882624.49857004</v>
       </c>
       <c r="I12" t="n">
-        <v>324713.7360827835</v>
+        <v>44301912.25062484</v>
       </c>
       <c r="J12" t="n">
-        <v>1064708.771442089</v>
+        <v>40094532.5059386</v>
       </c>
       <c r="K12" t="n">
-        <v>474463.7548287862</v>
+        <v>35965827.85120926</v>
       </c>
       <c r="L12" t="n">
-        <v>456744.4738816143</v>
+        <v>40896372.28576525</v>
       </c>
       <c r="M12" t="n">
-        <v>270807.3174489825</v>
+        <v>45488132.4113826</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1456936.60279318</v>
+        <v>44410687.06367454</v>
       </c>
       <c r="C13" t="n">
-        <v>1614349.788634987</v>
+        <v>39913263.93317483</v>
       </c>
       <c r="D13" t="n">
-        <v>1768696.57291637</v>
+        <v>45264894.03118609</v>
       </c>
       <c r="E13" t="n">
-        <v>1928844.750168037</v>
+        <v>38435932.22191431</v>
       </c>
       <c r="F13" t="n">
-        <v>2071500.098908135</v>
+        <v>36860702.55475765</v>
       </c>
       <c r="G13" t="n">
-        <v>2221644.061015124</v>
+        <v>27449951.95688459</v>
       </c>
       <c r="H13" t="n">
-        <v>2363098.941791163</v>
+        <v>33041246.26306093</v>
       </c>
       <c r="I13" t="n">
-        <v>2504766.957320193</v>
+        <v>42593810.30636418</v>
       </c>
       <c r="J13" t="n">
-        <v>2652923.227145239</v>
+        <v>26440598.1825113</v>
       </c>
       <c r="K13" t="n">
-        <v>2783406.385730294</v>
+        <v>28067780.8960015</v>
       </c>
       <c r="L13" t="n">
-        <v>2928257.199029903</v>
+        <v>32751054.81048072</v>
       </c>
       <c r="M13" t="n">
-        <v>3046785.749858369</v>
+        <v>44553746.19151193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15126.72123416727</v>
+        <v>3158324.070779518</v>
       </c>
       <c r="C14" t="n">
-        <v>34668.83878870329</v>
+        <v>4254440.838922879</v>
       </c>
       <c r="D14" t="n">
-        <v>24798.62252946619</v>
+        <v>5328617.168613804</v>
       </c>
       <c r="E14" t="n">
-        <v>89690.19454005608</v>
+        <v>6381292.231197541</v>
       </c>
       <c r="F14" t="n">
-        <v>5766.817631710444</v>
+        <v>7412896.461749895</v>
       </c>
       <c r="G14" t="n">
-        <v>48153.70400463599</v>
+        <v>8423851.329267383</v>
       </c>
       <c r="H14" t="n">
-        <v>33235.72513174955</v>
+        <v>9414594.396622779</v>
       </c>
       <c r="I14" t="n">
-        <v>131166.9570021975</v>
+        <v>10385450.5247422</v>
       </c>
       <c r="J14" t="n">
-        <v>161659.6671599011</v>
+        <v>11336897.18478563</v>
       </c>
       <c r="K14" t="n">
-        <v>43253.41177671152</v>
+        <v>12269317.22576151</v>
       </c>
       <c r="L14" t="n">
-        <v>-4198.232356799184</v>
+        <v>13183142.74069351</v>
       </c>
       <c r="M14" t="n">
-        <v>34739.31496088338</v>
+        <v>14078578.23306368</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1281187.440035711</v>
+        <v>3866884.251922202</v>
       </c>
       <c r="C15" t="n">
-        <v>892406.8853389246</v>
+        <v>3641611.174532432</v>
       </c>
       <c r="D15" t="n">
-        <v>901641.5227673274</v>
+        <v>3596151.431030824</v>
       </c>
       <c r="E15" t="n">
-        <v>993288.3043442625</v>
+        <v>3920386.604097725</v>
       </c>
       <c r="F15" t="n">
-        <v>952911.0403729759</v>
+        <v>3717568.472669952</v>
       </c>
       <c r="G15" t="n">
-        <v>1725248.854880808</v>
+        <v>3654192.01770439</v>
       </c>
       <c r="H15" t="n">
-        <v>1396883.07699222</v>
+        <v>3666625.798222041</v>
       </c>
       <c r="I15" t="n">
-        <v>1008269.321510284</v>
+        <v>4199251.580008044</v>
       </c>
       <c r="J15" t="n">
-        <v>991873.3643368083</v>
+        <v>4245471.562070795</v>
       </c>
       <c r="K15" t="n">
-        <v>1137390.206045346</v>
+        <v>3667217.897807166</v>
       </c>
       <c r="L15" t="n">
-        <v>911313.0191500429</v>
+        <v>3887699.207452335</v>
       </c>
       <c r="M15" t="n">
-        <v>1258529.346527368</v>
+        <v>3554737.508557751</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1269353.599697693</v>
+        <v>9042809.163012642</v>
       </c>
       <c r="C16" t="n">
-        <v>1408935.378441037</v>
+        <v>14415092.44806029</v>
       </c>
       <c r="D16" t="n">
-        <v>1547332.661028271</v>
+        <v>13627764.94705331</v>
       </c>
       <c r="E16" t="n">
-        <v>1683524.573587497</v>
+        <v>16645590.22037704</v>
       </c>
       <c r="F16" t="n">
-        <v>1815499.223731421</v>
+        <v>16069400.16645517</v>
       </c>
       <c r="G16" t="n">
-        <v>1953715.522818083</v>
+        <v>16160763.40610929</v>
       </c>
       <c r="H16" t="n">
-        <v>2073303.837908088</v>
+        <v>12860618.55756757</v>
       </c>
       <c r="I16" t="n">
-        <v>2203352.641727133</v>
+        <v>13750461.84993091</v>
       </c>
       <c r="J16" t="n">
-        <v>2323510.340399566</v>
+        <v>16203790.7967614</v>
       </c>
       <c r="K16" t="n">
-        <v>2443172.489440607</v>
+        <v>15134248.08543716</v>
       </c>
       <c r="L16" t="n">
-        <v>2563154.456106381</v>
+        <v>15544680.0776215</v>
       </c>
       <c r="M16" t="n">
-        <v>2675391.333877185</v>
+        <v>16706242.60377341</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7208781.28293417</v>
+        <v>4826874.275623207</v>
       </c>
       <c r="C17" t="n">
-        <v>7947784.954523364</v>
+        <v>4896936.869786495</v>
       </c>
       <c r="D17" t="n">
-        <v>8672920.730901474</v>
+        <v>4965357.202791702</v>
       </c>
       <c r="E17" t="n">
-        <v>9378629.670438489</v>
+        <v>5032507.382541829</v>
       </c>
       <c r="F17" t="n">
-        <v>10078040.72362829</v>
+        <v>5098013.577548515</v>
       </c>
       <c r="G17" t="n">
-        <v>10761119.17456311</v>
+        <v>5162301.255504398</v>
       </c>
       <c r="H17" t="n">
-        <v>11431980.46010189</v>
+        <v>5225917.686304994</v>
       </c>
       <c r="I17" t="n">
-        <v>12106497.67740745</v>
+        <v>5287519.023766799</v>
       </c>
       <c r="J17" t="n">
-        <v>12746578.13560825</v>
+        <v>5348358.695734575</v>
       </c>
       <c r="K17" t="n">
-        <v>13365186.8483061</v>
+        <v>5407697.617022302</v>
       </c>
       <c r="L17" t="n">
-        <v>14006484.72961407</v>
+        <v>5466092.649205415</v>
       </c>
       <c r="M17" t="n">
-        <v>14574075.2126766</v>
+        <v>5523217.896592836</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1134968.556550988</v>
+        <v>3081868.419036498</v>
       </c>
       <c r="C18" t="n">
-        <v>627926.9430464525</v>
+        <v>3437544.642967053</v>
       </c>
       <c r="D18" t="n">
-        <v>1394362.218283533</v>
+        <v>2834607.834769292</v>
       </c>
       <c r="E18" t="n">
-        <v>1025496.742566701</v>
+        <v>2723162.854342101</v>
       </c>
       <c r="F18" t="n">
-        <v>1130723.58797035</v>
+        <v>3083755.498475579</v>
       </c>
       <c r="G18" t="n">
-        <v>3918430.102046655</v>
+        <v>2838528.968855111</v>
       </c>
       <c r="H18" t="n">
-        <v>521197.4937971756</v>
+        <v>3396475.150204972</v>
       </c>
       <c r="I18" t="n">
-        <v>1285138.603815265</v>
+        <v>3432313.864304726</v>
       </c>
       <c r="J18" t="n">
-        <v>1421191.442170435</v>
+        <v>3634749.667124971</v>
       </c>
       <c r="K18" t="n">
-        <v>1394356.681068519</v>
+        <v>4309957.253805177</v>
       </c>
       <c r="L18" t="n">
-        <v>941734.3045357181</v>
+        <v>3198183.881295387</v>
       </c>
       <c r="M18" t="n">
-        <v>1177456.904909433</v>
+        <v>3557996.11658208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14064.48632398023</v>
+        <v>6732092.684817335</v>
       </c>
       <c r="C19" t="n">
-        <v>-104598.6719484946</v>
+        <v>4760211.747654415</v>
       </c>
       <c r="D19" t="n">
-        <v>122670.4062238223</v>
+        <v>6204428.411668761</v>
       </c>
       <c r="E19" t="n">
-        <v>15698.1839539376</v>
+        <v>5115954.469879072</v>
       </c>
       <c r="F19" t="n">
-        <v>-139086.7256031474</v>
+        <v>5694873.731634147</v>
       </c>
       <c r="G19" t="n">
-        <v>20476.66907823098</v>
+        <v>3525937.637848465</v>
       </c>
       <c r="H19" t="n">
-        <v>-124624.2817212506</v>
+        <v>5164561.590944554</v>
       </c>
       <c r="I19" t="n">
-        <v>-20112.61064192632</v>
+        <v>6686484.601168185</v>
       </c>
       <c r="J19" t="n">
-        <v>-85052.81412628492</v>
+        <v>3948917.706475153</v>
       </c>
       <c r="K19" t="n">
-        <v>-127005.0422372201</v>
+        <v>3523754.409014566</v>
       </c>
       <c r="L19" t="n">
-        <v>-70135.3483706969</v>
+        <v>4377990.188389292</v>
       </c>
       <c r="M19" t="n">
-        <v>-169611.8553757397</v>
+        <v>5288451.659955204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1629168.218286723</v>
+        <v>2445113.488525064</v>
       </c>
       <c r="C20" t="n">
-        <v>1944901.829781738</v>
+        <v>3093754.573649429</v>
       </c>
       <c r="D20" t="n">
-        <v>2140630.782164745</v>
+        <v>3258982.221653098</v>
       </c>
       <c r="E20" t="n">
-        <v>2128830.568752898</v>
+        <v>3442881.460231283</v>
       </c>
       <c r="F20" t="n">
-        <v>2160927.710425886</v>
+        <v>2794706.709205443</v>
       </c>
       <c r="G20" t="n">
-        <v>2655103.325742749</v>
+        <v>3064556.534126926</v>
       </c>
       <c r="H20" t="n">
-        <v>1153832.876359326</v>
+        <v>3999351.876825868</v>
       </c>
       <c r="I20" t="n">
-        <v>2816267.748669025</v>
+        <v>4005637.002901057</v>
       </c>
       <c r="J20" t="n">
-        <v>1805609.86570821</v>
+        <v>1588013.139342829</v>
       </c>
       <c r="K20" t="n">
-        <v>2150464.592786943</v>
+        <v>2388797.402577183</v>
       </c>
       <c r="L20" t="n">
-        <v>2212033.912299008</v>
+        <v>3110124.166577335</v>
       </c>
       <c r="M20" t="n">
-        <v>2268115.200011232</v>
+        <v>2294227.897653945</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1610180.066058184</v>
+        <v>3941748.972079294</v>
       </c>
       <c r="C21" t="n">
-        <v>1148201.75052299</v>
+        <v>3891025.036281006</v>
       </c>
       <c r="D21" t="n">
-        <v>1128541.549314972</v>
+        <v>4872650.48126832</v>
       </c>
       <c r="E21" t="n">
-        <v>1766690.212957164</v>
+        <v>4571951.208931726</v>
       </c>
       <c r="F21" t="n">
-        <v>1254141.821448046</v>
+        <v>4607817.71429568</v>
       </c>
       <c r="G21" t="n">
-        <v>1180542.704718011</v>
+        <v>3934714.811301251</v>
       </c>
       <c r="H21" t="n">
-        <v>1082665.905928618</v>
+        <v>3486128.261821838</v>
       </c>
       <c r="I21" t="n">
-        <v>1945528.750771874</v>
+        <v>4133048.388802852</v>
       </c>
       <c r="J21" t="n">
-        <v>1294732.173281842</v>
+        <v>4137576.868340105</v>
       </c>
       <c r="K21" t="n">
-        <v>1942102.071403447</v>
+        <v>4586558.681348278</v>
       </c>
       <c r="L21" t="n">
-        <v>2093761.646928021</v>
+        <v>4743013.489097461</v>
       </c>
       <c r="M21" t="n">
-        <v>1242158.574315316</v>
+        <v>3960839.471983123</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437240.4523649153</v>
+        <v>9985396.57316147</v>
       </c>
       <c r="C22" t="n">
-        <v>437308.8813056506</v>
+        <v>12313167.21155019</v>
       </c>
       <c r="D22" t="n">
-        <v>437345.976288577</v>
+        <v>13164310.63716007</v>
       </c>
       <c r="E22" t="n">
-        <v>437380.1117325681</v>
+        <v>12438915.82483804</v>
       </c>
       <c r="F22" t="n">
-        <v>437604.3016188641</v>
+        <v>12547726.2976764</v>
       </c>
       <c r="G22" t="n">
-        <v>437514.8262868425</v>
+        <v>10391848.1920332</v>
       </c>
       <c r="H22" t="n">
-        <v>437317.6375476692</v>
+        <v>10009682.42252241</v>
       </c>
       <c r="I22" t="n">
-        <v>437186.5764714577</v>
+        <v>12282326.38061776</v>
       </c>
       <c r="J22" t="n">
-        <v>437560.5525482696</v>
+        <v>13470555.64799121</v>
       </c>
       <c r="K22" t="n">
-        <v>437280.3898590313</v>
+        <v>12171666.56475142</v>
       </c>
       <c r="L22" t="n">
-        <v>437225.5874104587</v>
+        <v>15045033.26133722</v>
       </c>
       <c r="M22" t="n">
-        <v>437345.4823410496</v>
+        <v>12389922.17631863</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5479.080248321437</v>
+        <v>7753925.869681023</v>
       </c>
       <c r="C23" t="n">
-        <v>5481.899077156424</v>
+        <v>9478459.265935089</v>
       </c>
       <c r="D23" t="n">
-        <v>5481.412898169022</v>
+        <v>9004910.610446157</v>
       </c>
       <c r="E23" t="n">
-        <v>5479.851680513613</v>
+        <v>8287336.023907265</v>
       </c>
       <c r="F23" t="n">
-        <v>5481.858998051411</v>
+        <v>8481602.010977654</v>
       </c>
       <c r="G23" t="n">
-        <v>5779.195305393492</v>
+        <v>6373073.874984106</v>
       </c>
       <c r="H23" t="n">
-        <v>5384.198283008217</v>
+        <v>5677686.281017174</v>
       </c>
       <c r="I23" t="n">
-        <v>5565.543855884123</v>
+        <v>6078736.174288608</v>
       </c>
       <c r="J23" t="n">
-        <v>5475.919652078501</v>
+        <v>6137767.114817953</v>
       </c>
       <c r="K23" t="n">
-        <v>5367.880227693134</v>
+        <v>6119543.455131153</v>
       </c>
       <c r="L23" t="n">
-        <v>5424.638911547593</v>
+        <v>7497929.759526921</v>
       </c>
       <c r="M23" t="n">
-        <v>5349.930304301115</v>
+        <v>8991959.309193388</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14050248.38837185</v>
+        <v>9148209.007432599</v>
       </c>
       <c r="C24" t="n">
-        <v>12620270.18336277</v>
+        <v>9695446.712574003</v>
       </c>
       <c r="D24" t="n">
-        <v>13432437.79311284</v>
+        <v>10259437.39023435</v>
       </c>
       <c r="E24" t="n">
-        <v>13760437.38876151</v>
+        <v>10515608.26072051</v>
       </c>
       <c r="F24" t="n">
-        <v>14284327.97709215</v>
+        <v>11864074.36432454</v>
       </c>
       <c r="G24" t="n">
-        <v>17425050.6855717</v>
+        <v>7505064.396955116</v>
       </c>
       <c r="H24" t="n">
-        <v>11684180.99705169</v>
+        <v>10140997.42070852</v>
       </c>
       <c r="I24" t="n">
-        <v>13770498.87415417</v>
+        <v>10572516.13972489</v>
       </c>
       <c r="J24" t="n">
-        <v>13971852.9445233</v>
+        <v>11302802.4638015</v>
       </c>
       <c r="K24" t="n">
-        <v>12352996.33019522</v>
+        <v>8350902.76119892</v>
       </c>
       <c r="L24" t="n">
-        <v>12300194.29311202</v>
+        <v>9643553.720633311</v>
       </c>
       <c r="M24" t="n">
-        <v>13096204.82702879</v>
+        <v>9976456.757289413</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2607628.387396068</v>
+        <v>4437523.650204765</v>
       </c>
       <c r="C25" t="n">
-        <v>2616735.702186819</v>
+        <v>5766721.678700331</v>
       </c>
       <c r="D25" t="n">
-        <v>2458046.462871708</v>
+        <v>5727392.392928741</v>
       </c>
       <c r="E25" t="n">
-        <v>2970190.640734451</v>
+        <v>5145677.049488914</v>
       </c>
       <c r="F25" t="n">
-        <v>2750853.029785397</v>
+        <v>5823786.318433573</v>
       </c>
       <c r="G25" t="n">
-        <v>2971479.152845819</v>
+        <v>3862108.59864467</v>
       </c>
       <c r="H25" t="n">
-        <v>1548435.056375496</v>
+        <v>4791733.024881078</v>
       </c>
       <c r="I25" t="n">
-        <v>2847888.832031961</v>
+        <v>6318036.837462466</v>
       </c>
       <c r="J25" t="n">
-        <v>2614274.77942424</v>
+        <v>5086624.818637511</v>
       </c>
       <c r="K25" t="n">
-        <v>2687365.323938858</v>
+        <v>3808647.161554222</v>
       </c>
       <c r="L25" t="n">
-        <v>2637978.118391692</v>
+        <v>4541136.869873575</v>
       </c>
       <c r="M25" t="n">
-        <v>2730101.533447402</v>
+        <v>5558326.148461091</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9353733.993855603</v>
+        <v>12611110.68838626</v>
       </c>
       <c r="C26" t="n">
-        <v>9576018.409112757</v>
+        <v>11671162.30269557</v>
       </c>
       <c r="D26" t="n">
-        <v>8893259.153315097</v>
+        <v>11581531.03436324</v>
       </c>
       <c r="E26" t="n">
-        <v>8972415.323412871</v>
+        <v>10804568.1967647</v>
       </c>
       <c r="F26" t="n">
-        <v>8715266.059576651</v>
+        <v>12246977.13345864</v>
       </c>
       <c r="G26" t="n">
-        <v>10209903.9639556</v>
+        <v>9618628.452175705</v>
       </c>
       <c r="H26" t="n">
-        <v>8794630.744956767</v>
+        <v>11085700.49171741</v>
       </c>
       <c r="I26" t="n">
-        <v>9032565.447126573</v>
+        <v>10747253.0361478</v>
       </c>
       <c r="J26" t="n">
-        <v>10424691.14770445</v>
+        <v>9310535.663565375</v>
       </c>
       <c r="K26" t="n">
-        <v>11663156.86173149</v>
+        <v>9446325.677338563</v>
       </c>
       <c r="L26" t="n">
-        <v>12519122.14808627</v>
+        <v>8900504.507837882</v>
       </c>
       <c r="M26" t="n">
-        <v>14276252.92699818</v>
+        <v>9973210.278517438</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13114506.95293618</v>
+        <v>4206555.589176401</v>
       </c>
       <c r="C27" t="n">
-        <v>14284707.18983132</v>
+        <v>3933486.066965886</v>
       </c>
       <c r="D27" t="n">
-        <v>14134381.57335136</v>
+        <v>3499798.135640315</v>
       </c>
       <c r="E27" t="n">
-        <v>14147188.6775491</v>
+        <v>3382315.455846259</v>
       </c>
       <c r="F27" t="n">
-        <v>15279202.05762999</v>
+        <v>4621947.289302334</v>
       </c>
       <c r="G27" t="n">
-        <v>21927062.84760961</v>
+        <v>2815020.302666303</v>
       </c>
       <c r="H27" t="n">
-        <v>9547381.55496647</v>
+        <v>4266329.473114938</v>
       </c>
       <c r="I27" t="n">
-        <v>10154540.30785788</v>
+        <v>4689359.671506122</v>
       </c>
       <c r="J27" t="n">
-        <v>15602931.09116773</v>
+        <v>3412094.045736708</v>
       </c>
       <c r="K27" t="n">
-        <v>13761143.54516851</v>
+        <v>3213089.948766326</v>
       </c>
       <c r="L27" t="n">
-        <v>15818096.40269092</v>
+        <v>2609220.383318071</v>
       </c>
       <c r="M27" t="n">
-        <v>16006266.49773351</v>
+        <v>4313037.146160018</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14755050.29945796</v>
+        <v>10319140.62337929</v>
       </c>
       <c r="C28" t="n">
-        <v>15511390.86816046</v>
+        <v>8271133.846485944</v>
       </c>
       <c r="D28" t="n">
-        <v>16116613.45258319</v>
+        <v>8204952.401210079</v>
       </c>
       <c r="E28" t="n">
-        <v>16600745.38549257</v>
+        <v>8284825.67949153</v>
       </c>
       <c r="F28" t="n">
-        <v>16987898.44627842</v>
+        <v>11526180.86478121</v>
       </c>
       <c r="G28" t="n">
-        <v>17297921.71772645</v>
+        <v>8393780.010837246</v>
       </c>
       <c r="H28" t="n">
-        <v>17545264.8177148</v>
+        <v>11023594.88890525</v>
       </c>
       <c r="I28" t="n">
-        <v>17744108.23534208</v>
+        <v>9958447.891708249</v>
       </c>
       <c r="J28" t="n">
-        <v>17902990.52773056</v>
+        <v>10751881.46848771</v>
       </c>
       <c r="K28" t="n">
-        <v>18029734.61892134</v>
+        <v>7359164.089102965</v>
       </c>
       <c r="L28" t="n">
-        <v>18130988.86931136</v>
+        <v>10112691.53251649</v>
       </c>
       <c r="M28" t="n">
-        <v>18211966.52456512</v>
+        <v>13516612.44887214</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17409634.91222779</v>
+        <v>2495085.091557423</v>
       </c>
       <c r="C29" t="n">
-        <v>18275855.88284192</v>
+        <v>2593431.083511816</v>
       </c>
       <c r="D29" t="n">
-        <v>19125072.85842969</v>
+        <v>2689771.651967993</v>
       </c>
       <c r="E29" t="n">
-        <v>19957144.49314588</v>
+        <v>2784262.853421736</v>
       </c>
       <c r="F29" t="n">
-        <v>20772179.07722488</v>
+        <v>2876804.057615671</v>
       </c>
       <c r="G29" t="n">
-        <v>21570787.16659711</v>
+        <v>2967523.533254073</v>
       </c>
       <c r="H29" t="n">
-        <v>22354252.97944401</v>
+        <v>3056399.533256845</v>
       </c>
       <c r="I29" t="n">
-        <v>23122025.46129996</v>
+        <v>3143587.647976793</v>
       </c>
       <c r="J29" t="n">
-        <v>23873811.81955361</v>
+        <v>3228932.56612182</v>
       </c>
       <c r="K29" t="n">
-        <v>24611022.84371897</v>
+        <v>3312544.861375996</v>
       </c>
       <c r="L29" t="n">
-        <v>25333146.76826477</v>
+        <v>3394568.680152643</v>
       </c>
       <c r="M29" t="n">
-        <v>26041513.57429314</v>
+        <v>3474880.329431994</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48474115.06927411</v>
+        <v>668725.8787175127</v>
       </c>
       <c r="C30" t="n">
-        <v>43979592.62343627</v>
+        <v>581941.7251167239</v>
       </c>
       <c r="D30" t="n">
-        <v>50253083.02415897</v>
+        <v>576362.6413063102</v>
       </c>
       <c r="E30" t="n">
-        <v>54313262.60556308</v>
+        <v>556356.7893823105</v>
       </c>
       <c r="F30" t="n">
-        <v>51294678.85753438</v>
+        <v>955982.2389320363</v>
       </c>
       <c r="G30" t="n">
-        <v>43358688.70630191</v>
+        <v>469663.9298753801</v>
       </c>
       <c r="H30" t="n">
-        <v>43687877.50786921</v>
+        <v>397198.5357550337</v>
       </c>
       <c r="I30" t="n">
-        <v>45663385.76638999</v>
+        <v>370957.3886692412</v>
       </c>
       <c r="J30" t="n">
-        <v>48200015.33661228</v>
+        <v>407741.6271485906</v>
       </c>
       <c r="K30" t="n">
-        <v>42809187.36710861</v>
+        <v>278492.186928206</v>
       </c>
       <c r="L30" t="n">
-        <v>38826316.77488384</v>
+        <v>221663.1520387431</v>
       </c>
       <c r="M30" t="n">
-        <v>44453787.4723793</v>
+        <v>349020.8773017343</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35164083.53754786</v>
+        <v>544521.3073572856</v>
       </c>
       <c r="C31" t="n">
-        <v>45237355.97324547</v>
+        <v>742466.4010348018</v>
       </c>
       <c r="D31" t="n">
-        <v>40739800.32420692</v>
+        <v>750576.3255492334</v>
       </c>
       <c r="E31" t="n">
-        <v>46091310.69085536</v>
+        <v>814441.6442266724</v>
       </c>
       <c r="F31" t="n">
-        <v>39262223.61175403</v>
+        <v>734835.8904759081</v>
       </c>
       <c r="G31" t="n">
-        <v>37686873.17779308</v>
+        <v>503230.4837975923</v>
       </c>
       <c r="H31" t="n">
-        <v>28275988.94615249</v>
+        <v>735211.1338499691</v>
       </c>
       <c r="I31" t="n">
-        <v>33867170.7217117</v>
+        <v>879162.5493702833</v>
       </c>
       <c r="J31" t="n">
-        <v>43419642.13616355</v>
+        <v>610778.9812896444</v>
       </c>
       <c r="K31" t="n">
-        <v>27266278.91874679</v>
+        <v>587958.0788167304</v>
       </c>
       <c r="L31" t="n">
-        <v>28893370.86789805</v>
+        <v>613695.246901931</v>
       </c>
       <c r="M31" t="n">
-        <v>33576541.65093804</v>
+        <v>531646.8733122211</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>784992.1915076301</v>
+        <v>1816908.447822893</v>
       </c>
       <c r="C32" t="n">
-        <v>966153.930668551</v>
+        <v>1992311.946850441</v>
       </c>
       <c r="D32" t="n">
-        <v>1143692.265449669</v>
+        <v>1938351.886925075</v>
       </c>
       <c r="E32" t="n">
-        <v>1317679.582008354</v>
+        <v>1824694.603180643</v>
       </c>
       <c r="F32" t="n">
-        <v>1488186.906443221</v>
+        <v>1974403.293853186</v>
       </c>
       <c r="G32" t="n">
-        <v>1655283.845327549</v>
+        <v>1745604.986237918</v>
       </c>
       <c r="H32" t="n">
-        <v>1819038.61317185</v>
+        <v>1882043.873251789</v>
       </c>
       <c r="I32" t="n">
-        <v>1981424.905608916</v>
+        <v>2054082.562840789</v>
       </c>
       <c r="J32" t="n">
-        <v>2138818.587388024</v>
+        <v>2090439.594104178</v>
       </c>
       <c r="K32" t="n">
-        <v>2291107.854210014</v>
+        <v>1967878.359455166</v>
       </c>
       <c r="L32" t="n">
-        <v>2440277.940813834</v>
+        <v>2015839.246655364</v>
       </c>
       <c r="M32" t="n">
-        <v>2593296.793329083</v>
+        <v>2073816.992999714</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3944334.583161125</v>
+        <v>2262286.379619373</v>
       </c>
       <c r="C33" t="n">
-        <v>4279397.421391837</v>
+        <v>2270317.099485552</v>
       </c>
       <c r="D33" t="n">
-        <v>4139365.021143719</v>
+        <v>2278250.381069942</v>
       </c>
       <c r="E33" t="n">
-        <v>4141511.904533539</v>
+        <v>2285968.257689574</v>
       </c>
       <c r="F33" t="n">
-        <v>4392744.800453325</v>
+        <v>2293638.922907333</v>
       </c>
       <c r="G33" t="n">
-        <v>4269586.775355142</v>
+        <v>2301062.918896148</v>
       </c>
       <c r="H33" t="n">
-        <v>4258925.10009378</v>
+        <v>2308328.671936399</v>
       </c>
       <c r="I33" t="n">
-        <v>4302308.252130217</v>
+        <v>2315579.470952482</v>
       </c>
       <c r="J33" t="n">
-        <v>4684839.168316696</v>
+        <v>2322571.369844044</v>
       </c>
       <c r="K33" t="n">
-        <v>4736799.243206572</v>
+        <v>2329341.190003973</v>
       </c>
       <c r="L33" t="n">
-        <v>4333267.922359509</v>
+        <v>2336279.141587087</v>
       </c>
       <c r="M33" t="n">
-        <v>4514160.62692203</v>
+        <v>2342833.159498532</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10381576.46043348</v>
+        <v>2630591.8702238</v>
       </c>
       <c r="C34" t="n">
-        <v>8616714.568240182</v>
+        <v>1529135.440286928</v>
       </c>
       <c r="D34" t="n">
-        <v>14425705.02597295</v>
+        <v>2659411.37486504</v>
       </c>
       <c r="E34" t="n">
-        <v>13492669.24402689</v>
+        <v>2260137.745929203</v>
       </c>
       <c r="F34" t="n">
-        <v>16760953.43035541</v>
+        <v>3014503.39134252</v>
       </c>
       <c r="G34" t="n">
-        <v>15934786.5208598</v>
+        <v>2587756.20029928</v>
       </c>
       <c r="H34" t="n">
-        <v>16189679.0161509</v>
+        <v>1850622.64216955</v>
       </c>
       <c r="I34" t="n">
-        <v>12456595.14015864</v>
+        <v>2506197.62945762</v>
       </c>
       <c r="J34" t="n">
-        <v>13372909.98840687</v>
+        <v>1980706.342296887</v>
       </c>
       <c r="K34" t="n">
-        <v>15890913.67040915</v>
+        <v>3119971.400186002</v>
       </c>
       <c r="L34" t="n">
-        <v>14691129.7959175</v>
+        <v>3176240.497582255</v>
       </c>
       <c r="M34" t="n">
-        <v>15110420.51037212</v>
+        <v>2603155.065234487</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4607559.338883473</v>
+        <v>1477773.231262392</v>
       </c>
       <c r="C35" t="n">
-        <v>4671616.825424612</v>
+        <v>1556536.050144409</v>
       </c>
       <c r="D35" t="n">
-        <v>4734631.575613539</v>
+        <v>1625958.694058761</v>
       </c>
       <c r="E35" t="n">
-        <v>4796143.581513441</v>
+        <v>1443400.191383437</v>
       </c>
       <c r="F35" t="n">
-        <v>4856525.701319864</v>
+        <v>1436824.222319548</v>
       </c>
       <c r="G35" t="n">
-        <v>4915399.632032087</v>
+        <v>1349864.114268833</v>
       </c>
       <c r="H35" t="n">
-        <v>4973191.205401652</v>
+        <v>1436639.615774308</v>
       </c>
       <c r="I35" t="n">
-        <v>5030442.50430589</v>
+        <v>1743584.983127918</v>
       </c>
       <c r="J35" t="n">
-        <v>5085800.808683557</v>
+        <v>1511630.67135449</v>
       </c>
       <c r="K35" t="n">
-        <v>5140527.546014755</v>
+        <v>1464400.157449699</v>
       </c>
       <c r="L35" t="n">
-        <v>5193874.009266037</v>
+        <v>1394475.019449562</v>
       </c>
       <c r="M35" t="n">
-        <v>5246398.742853667</v>
+        <v>1692422.613541446</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1909259.548393792</v>
+        <v>1258359.63903651</v>
       </c>
       <c r="C36" t="n">
-        <v>2572321.311579017</v>
+        <v>1276927.071781009</v>
       </c>
       <c r="D36" t="n">
-        <v>2924647.827175578</v>
+        <v>1456530.893028119</v>
       </c>
       <c r="E36" t="n">
-        <v>2307500.504535283</v>
+        <v>1183849.471051393</v>
       </c>
       <c r="F36" t="n">
-        <v>2190505.680488565</v>
+        <v>1239510.258236316</v>
       </c>
       <c r="G36" t="n">
-        <v>2557810.271957563</v>
+        <v>1249871.331242989</v>
       </c>
       <c r="H36" t="n">
-        <v>2324692.29757263</v>
+        <v>1820102.206619862</v>
       </c>
       <c r="I36" t="n">
-        <v>2908045.802900804</v>
+        <v>1548199.248704867</v>
       </c>
       <c r="J36" t="n">
-        <v>2960512.29362618</v>
+        <v>1665988.512893457</v>
       </c>
       <c r="K36" t="n">
-        <v>3180862.44595979</v>
+        <v>1470514.247936733</v>
       </c>
       <c r="L36" t="n">
-        <v>3846647.789964443</v>
+        <v>1591683.847873894</v>
       </c>
       <c r="M36" t="n">
-        <v>2709129.00512648</v>
+        <v>1523430.832417891</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7143015.565839317</v>
+        <v>4657027.125521857</v>
       </c>
       <c r="C37" t="n">
-        <v>6681295.733850596</v>
+        <v>3975857.765157848</v>
       </c>
       <c r="D37" t="n">
-        <v>4518043.116914663</v>
+        <v>4836789.512032609</v>
       </c>
       <c r="E37" t="n">
-        <v>6082711.722349213</v>
+        <v>4331685.50700812</v>
       </c>
       <c r="F37" t="n">
-        <v>4857484.426666303</v>
+        <v>3794045.915235248</v>
       </c>
       <c r="G37" t="n">
-        <v>5535363.255127815</v>
+        <v>3493769.648104632</v>
       </c>
       <c r="H37" t="n">
-        <v>3500748.438862303</v>
+        <v>3399321.613421944</v>
       </c>
       <c r="I37" t="n">
-        <v>5146494.3660041</v>
+        <v>4443916.26958928</v>
       </c>
       <c r="J37" t="n">
-        <v>6696239.936249474</v>
+        <v>4226637.056262477</v>
       </c>
       <c r="K37" t="n">
-        <v>3918169.48871944</v>
+        <v>3718533.079841536</v>
       </c>
       <c r="L37" t="n">
-        <v>3500483.261877204</v>
+        <v>3629557.788004906</v>
       </c>
       <c r="M37" t="n">
-        <v>4170082.112304467</v>
+        <v>4478110.166126081</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2228767.257305199</v>
+        <v>3723474.924815809</v>
       </c>
       <c r="C38" t="n">
-        <v>2406357.958765675</v>
+        <v>4424209.888344742</v>
       </c>
       <c r="D38" t="n">
-        <v>3064368.292064664</v>
+        <v>3893302.430210391</v>
       </c>
       <c r="E38" t="n">
-        <v>3237405.45096381</v>
+        <v>3352906.540570773</v>
       </c>
       <c r="F38" t="n">
-        <v>3428864.202812291</v>
+        <v>3949440.733830715</v>
       </c>
       <c r="G38" t="n">
-        <v>2775283.011668513</v>
+        <v>2866926.312508075</v>
       </c>
       <c r="H38" t="n">
-        <v>3094098.174987744</v>
+        <v>3788932.47499338</v>
       </c>
       <c r="I38" t="n">
-        <v>4057210.224880463</v>
+        <v>3581274.583097228</v>
       </c>
       <c r="J38" t="n">
-        <v>4095511.203974965</v>
+        <v>3822899.969859862</v>
       </c>
       <c r="K38" t="n">
-        <v>1671868.380912205</v>
+        <v>4172035.164432165</v>
       </c>
       <c r="L38" t="n">
-        <v>2481694.693181566</v>
+        <v>3843927.004637427</v>
       </c>
       <c r="M38" t="n">
-        <v>3196703.50921723</v>
+        <v>3995232.429357098</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2239882.02377982</v>
+        <v>5333967.816390917</v>
       </c>
       <c r="C39" t="n">
-        <v>2660095.734522574</v>
+        <v>5378910.478616356</v>
       </c>
       <c r="D39" t="n">
-        <v>2125074.731067445</v>
+        <v>6187118.150243305</v>
       </c>
       <c r="E39" t="n">
-        <v>3321612.460631086</v>
+        <v>4745764.464628533</v>
       </c>
       <c r="F39" t="n">
-        <v>2942667.324742212</v>
+        <v>4968670.899797549</v>
       </c>
       <c r="G39" t="n">
-        <v>3115774.9842894</v>
+        <v>4487045.993381684</v>
       </c>
       <c r="H39" t="n">
-        <v>2458159.698388547</v>
+        <v>4456365.702915804</v>
       </c>
       <c r="I39" t="n">
-        <v>2275041.788700289</v>
+        <v>5529901.897195218</v>
       </c>
       <c r="J39" t="n">
-        <v>2939121.526724242</v>
+        <v>5547152.338075332</v>
       </c>
       <c r="K39" t="n">
-        <v>2299986.256893262</v>
+        <v>5694132.557076516</v>
       </c>
       <c r="L39" t="n">
-        <v>3934022.194320488</v>
+        <v>5655565.091154316</v>
       </c>
       <c r="M39" t="n">
-        <v>3062384.211179218</v>
+        <v>5665770.484667573</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10135732.71880838</v>
+        <v>5333247.869727992</v>
       </c>
       <c r="C40" t="n">
-        <v>9495820.918855291</v>
+        <v>5476297.541924616</v>
       </c>
       <c r="D40" t="n">
-        <v>12368519.72215643</v>
+        <v>5803519.966628363</v>
       </c>
       <c r="E40" t="n">
-        <v>12773268.25018642</v>
+        <v>5399867.345694841</v>
       </c>
       <c r="F40" t="n">
-        <v>11222580.95904587</v>
+        <v>5705489.34990217</v>
       </c>
       <c r="G40" t="n">
-        <v>11390278.81382738</v>
+        <v>4696039.817314159</v>
       </c>
       <c r="H40" t="n">
-        <v>9619182.717381479</v>
+        <v>4912320.404850462</v>
       </c>
       <c r="I40" t="n">
-        <v>7728784.59265982</v>
+        <v>5799739.13119694</v>
       </c>
       <c r="J40" t="n">
-        <v>12303502.14876198</v>
+        <v>5626043.783509849</v>
       </c>
       <c r="K40" t="n">
-        <v>12762795.50260286</v>
+        <v>5667292.197481086</v>
       </c>
       <c r="L40" t="n">
-        <v>12362446.01853371</v>
+        <v>5894595.540584525</v>
       </c>
       <c r="M40" t="n">
-        <v>16161910.0273667</v>
+        <v>5553248.405927406</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8607618.941995457</v>
+        <v>2863374.200555343</v>
       </c>
       <c r="C41" t="n">
-        <v>7599472.2445185</v>
+        <v>3108570.0986593</v>
       </c>
       <c r="D41" t="n">
-        <v>9482868.669229833</v>
+        <v>3122710.978698428</v>
       </c>
       <c r="E41" t="n">
-        <v>9072446.401517745</v>
+        <v>2712747.076154457</v>
       </c>
       <c r="F41" t="n">
-        <v>8337804.96974682</v>
+        <v>3570855.759445705</v>
       </c>
       <c r="G41" t="n">
-        <v>8545976.314554825</v>
+        <v>3025077.105345304</v>
       </c>
       <c r="H41" t="n">
-        <v>6500517.090878645</v>
+        <v>2192279.366509039</v>
       </c>
       <c r="I41" t="n">
-        <v>5646985.923789643</v>
+        <v>2995563.49925161</v>
       </c>
       <c r="J41" t="n">
-        <v>6089049.997304757</v>
+        <v>3474078.157595082</v>
       </c>
       <c r="K41" t="n">
-        <v>6131246.106149977</v>
+        <v>2703452.248317068</v>
       </c>
       <c r="L41" t="n">
-        <v>6148695.604827923</v>
+        <v>3036681.644886348</v>
       </c>
       <c r="M41" t="n">
-        <v>7538427.610168629</v>
+        <v>3088723.355803972</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10886384.46741731</v>
+        <v>4221941.87336068</v>
       </c>
       <c r="C42" t="n">
-        <v>9718793.283682594</v>
+        <v>4788306.83660304</v>
       </c>
       <c r="D42" t="n">
-        <v>10340930.71903976</v>
+        <v>4606473.619184909</v>
       </c>
       <c r="E42" t="n">
-        <v>10920027.32611585</v>
+        <v>4455196.912137862</v>
       </c>
       <c r="F42" t="n">
-        <v>11323874.84956349</v>
+        <v>4221335.704757234</v>
       </c>
       <c r="G42" t="n">
-        <v>12602439.2618278</v>
+        <v>3407681.407000196</v>
       </c>
       <c r="H42" t="n">
-        <v>8158185.652963612</v>
+        <v>3678932.281104761</v>
       </c>
       <c r="I42" t="n">
-        <v>10820396.35541316</v>
+        <v>4091518.211505447</v>
       </c>
       <c r="J42" t="n">
-        <v>11340345.89993721</v>
+        <v>4071976.010219113</v>
       </c>
       <c r="K42" t="n">
-        <v>12058872.70207911</v>
+        <v>4306878.428788451</v>
       </c>
       <c r="L42" t="n">
-        <v>9084655.111234102</v>
+        <v>4349910.190332136</v>
       </c>
       <c r="M42" t="n">
-        <v>10418726.8096052</v>
+        <v>4433204.250574306</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5643024.754169529</v>
+        <v>2921015.983340714</v>
       </c>
       <c r="C43" t="n">
-        <v>4598424.792649133</v>
+        <v>2708227.996086211</v>
       </c>
       <c r="D43" t="n">
-        <v>5994800.92386631</v>
+        <v>3192507.070773981</v>
       </c>
       <c r="E43" t="n">
-        <v>5897470.766132443</v>
+        <v>3358037.352732102</v>
       </c>
       <c r="F43" t="n">
-        <v>5231036.621391782</v>
+        <v>3753790.085774328</v>
       </c>
       <c r="G43" t="n">
-        <v>5750759.771751118</v>
+        <v>2303737.932883277</v>
       </c>
       <c r="H43" t="n">
-        <v>4157109.692955742</v>
+        <v>2311408.418745669</v>
       </c>
       <c r="I43" t="n">
-        <v>5063345.118145048</v>
+        <v>3427422.171810066</v>
       </c>
       <c r="J43" t="n">
-        <v>6779854.952349901</v>
+        <v>3356160.009147838</v>
       </c>
       <c r="K43" t="n">
-        <v>5210749.975845571</v>
+        <v>3175454.157280355</v>
       </c>
       <c r="L43" t="n">
-        <v>4011175.41508806</v>
+        <v>3067471.62234074</v>
       </c>
       <c r="M43" t="n">
-        <v>4882078.106930055</v>
+        <v>3124019.2875599</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15333962.39210073</v>
+        <v>4864062.761246653</v>
       </c>
       <c r="C44" t="n">
-        <v>17645050.91995264</v>
+        <v>5612644.347462617</v>
       </c>
       <c r="D44" t="n">
-        <v>16829483.00020812</v>
+        <v>5078493.26298779</v>
       </c>
       <c r="E44" t="n">
-        <v>16671430.27026959</v>
+        <v>5088461.402300951</v>
       </c>
       <c r="F44" t="n">
-        <v>15903126.61155444</v>
+        <v>5932115.125798811</v>
       </c>
       <c r="G44" t="n">
-        <v>17425483.19223309</v>
+        <v>4498687.11801286</v>
       </c>
       <c r="H44" t="n">
-        <v>14784139.44362611</v>
+        <v>4656840.277508322</v>
       </c>
       <c r="I44" t="n">
-        <v>16366771.56569961</v>
+        <v>5424729.619568501</v>
       </c>
       <c r="J44" t="n">
-        <v>15945521.14158477</v>
+        <v>4848126.314072071</v>
       </c>
       <c r="K44" t="n">
-        <v>14582295.43256216</v>
+        <v>4846383.209139151</v>
       </c>
       <c r="L44" t="n">
-        <v>14778009.19543234</v>
+        <v>5277863.119830674</v>
       </c>
       <c r="M44" t="n">
-        <v>14051460.61848558</v>
+        <v>5960220.131846603</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6159989.217504757</v>
+        <v>3384320.544389748</v>
       </c>
       <c r="C45" t="n">
-        <v>5077903.932695235</v>
+        <v>3738739.461612018</v>
       </c>
       <c r="D45" t="n">
-        <v>4984997.793620079</v>
+        <v>2854387.184826637</v>
       </c>
       <c r="E45" t="n">
-        <v>4697612.198807158</v>
+        <v>3496006.725856666</v>
       </c>
       <c r="F45" t="n">
-        <v>4682875.770778901</v>
+        <v>3272386.239561728</v>
       </c>
       <c r="G45" t="n">
-        <v>6034808.366729058</v>
+        <v>2506885.179377636</v>
       </c>
       <c r="H45" t="n">
-        <v>4188004.43741952</v>
+        <v>2828436.529423126</v>
       </c>
       <c r="I45" t="n">
-        <v>5662264.388363122</v>
+        <v>3251512.230389643</v>
       </c>
       <c r="J45" t="n">
-        <v>6142278.629784057</v>
+        <v>3558281.473480961</v>
       </c>
       <c r="K45" t="n">
-        <v>4859447.083164005</v>
+        <v>3344490.211507063</v>
       </c>
       <c r="L45" t="n">
-        <v>4693931.522006385</v>
+        <v>2827964.873871897</v>
       </c>
       <c r="M45" t="n">
-        <v>4041509.640719722</v>
+        <v>3189041.104860639</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14423426.02572541</v>
+        <v>2091933.993330215</v>
       </c>
       <c r="C46" t="n">
-        <v>10382423.3790105</v>
+        <v>2228152.555661346</v>
       </c>
       <c r="D46" t="n">
-        <v>11363936.48847933</v>
+        <v>2487277.448692154</v>
       </c>
       <c r="E46" t="n">
-        <v>11975306.37131211</v>
+        <v>1904811.867727072</v>
       </c>
       <c r="F46" t="n">
-        <v>9703959.68208647</v>
+        <v>2065061.117609984</v>
       </c>
       <c r="G46" t="n">
-        <v>11564026.69682744</v>
+        <v>1710187.733890605</v>
       </c>
       <c r="H46" t="n">
-        <v>9922141.968422268</v>
+        <v>1932670.912930618</v>
       </c>
       <c r="I46" t="n">
-        <v>13227365.89622673</v>
+        <v>2720008.091105618</v>
       </c>
       <c r="J46" t="n">
-        <v>10435528.55561589</v>
+        <v>1971226.31267911</v>
       </c>
       <c r="K46" t="n">
-        <v>13290165.81975844</v>
+        <v>2168808.883528757</v>
       </c>
       <c r="L46" t="n">
-        <v>9683309.966525812</v>
+        <v>2064979.942180133</v>
       </c>
       <c r="M46" t="n">
-        <v>13129164.3906776</v>
+        <v>2110002.569482082</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2281802.518207999</v>
+        <v>1662900.377703214</v>
       </c>
       <c r="C47" t="n">
-        <v>2364059.607577059</v>
+        <v>1659033.009433123</v>
       </c>
       <c r="D47" t="n">
-        <v>2444671.729893499</v>
+        <v>1655934.016159071</v>
       </c>
       <c r="E47" t="n">
-        <v>2523633.398784332</v>
+        <v>1653359.88137131</v>
       </c>
       <c r="F47" t="n">
-        <v>2601093.692973232</v>
+        <v>1651421.001035082</v>
       </c>
       <c r="G47" t="n">
-        <v>2676944.884707031</v>
+        <v>1649846.850198568</v>
       </c>
       <c r="H47" t="n">
-        <v>2751308.860843028</v>
+        <v>1648566.37447689</v>
       </c>
       <c r="I47" t="n">
-        <v>2824156.793874366</v>
+        <v>1647583.324016667</v>
       </c>
       <c r="J47" t="n">
-        <v>2895637.96251071</v>
+        <v>1646794.982621134</v>
       </c>
       <c r="K47" t="n">
-        <v>2965590.580869747</v>
+        <v>1646080.007541795</v>
       </c>
       <c r="L47" t="n">
-        <v>3034119.204034731</v>
+        <v>1645445.679473214</v>
       </c>
       <c r="M47" t="n">
-        <v>3101361.136037828</v>
+        <v>1645145.966020989</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>742830.5868930719</v>
+        <v>5544098.893927437</v>
       </c>
       <c r="C48" t="n">
-        <v>684416.5089988832</v>
+        <v>6028439.462470575</v>
       </c>
       <c r="D48" t="n">
-        <v>603812.5816206355</v>
+        <v>5740876.398289527</v>
       </c>
       <c r="E48" t="n">
-        <v>604409.7930175248</v>
+        <v>5164293.876311685</v>
       </c>
       <c r="F48" t="n">
-        <v>590206.3838307579</v>
+        <v>5584221.769423467</v>
       </c>
       <c r="G48" t="n">
-        <v>996539.6183798889</v>
+        <v>5285235.011187728</v>
       </c>
       <c r="H48" t="n">
-        <v>515103.1701342937</v>
+        <v>4930024.07865136</v>
       </c>
       <c r="I48" t="n">
-        <v>448201.8000669102</v>
+        <v>5416712.493857029</v>
       </c>
       <c r="J48" t="n">
-        <v>427564.4337830701</v>
+        <v>5711212.45295696</v>
       </c>
       <c r="K48" t="n">
-        <v>469572.265805622</v>
+        <v>4865193.228316983</v>
       </c>
       <c r="L48" t="n">
-        <v>345297.4073246602</v>
+        <v>5012337.501127826</v>
       </c>
       <c r="M48" t="n">
-        <v>293185.3815533791</v>
+        <v>5746093.988528564</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>616626.2267850918</v>
+        <v>603448.7331968084</v>
       </c>
       <c r="C49" t="n">
-        <v>565259.600559463</v>
+        <v>766857.4478681008</v>
       </c>
       <c r="D49" t="n">
-        <v>765971.9429160465</v>
+        <v>515315.0974367214</v>
       </c>
       <c r="E49" t="n">
-        <v>774007.4438830233</v>
+        <v>571034.0803532782</v>
       </c>
       <c r="F49" t="n">
-        <v>841078.7874197458</v>
+        <v>676962.6690989323</v>
       </c>
       <c r="G49" t="n">
-        <v>749814.8764372281</v>
+        <v>543724.3629837397</v>
       </c>
       <c r="H49" t="n">
-        <v>512199.9051429844</v>
+        <v>740438.5836712195</v>
       </c>
       <c r="I49" t="n">
-        <v>732190.9193256218</v>
+        <v>921065.0368088984</v>
       </c>
       <c r="J49" t="n">
-        <v>896180.5006421548</v>
+        <v>855519.9357232212</v>
       </c>
       <c r="K49" t="n">
-        <v>628517.9864999723</v>
+        <v>634709.4749670707</v>
       </c>
       <c r="L49" t="n">
-        <v>594593.9167330466</v>
+        <v>686803.7997830093</v>
       </c>
       <c r="M49" t="n">
-        <v>632012.841417554</v>
+        <v>666956.2873200579</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1570912.082273628</v>
+        <v>2825850.60442599</v>
       </c>
       <c r="C50" t="n">
-        <v>1589905.207308122</v>
+        <v>2909149.490847619</v>
       </c>
       <c r="D50" t="n">
-        <v>1813821.914362311</v>
+        <v>2990811.879042936</v>
       </c>
       <c r="E50" t="n">
-        <v>1732780.453603342</v>
+        <v>3070906.792612881</v>
       </c>
       <c r="F50" t="n">
-        <v>1568120.610022965</v>
+        <v>3149409.327203429</v>
       </c>
       <c r="G50" t="n">
-        <v>1776145.725381739</v>
+        <v>3226153.822404087</v>
       </c>
       <c r="H50" t="n">
-        <v>1460819.722658271</v>
+        <v>3301577.713363874</v>
       </c>
       <c r="I50" t="n">
-        <v>1635554.852398048</v>
+        <v>3375487.437943993</v>
       </c>
       <c r="J50" t="n">
-        <v>1852154.603526297</v>
+        <v>3447935.122942966</v>
       </c>
       <c r="K50" t="n">
-        <v>1888940.250639751</v>
+        <v>3518799.959275052</v>
       </c>
       <c r="L50" t="n">
-        <v>1736456.293097846</v>
+        <v>3588444.268542157</v>
       </c>
       <c r="M50" t="n">
-        <v>1776487.329630022</v>
+        <v>3656365.514385654</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2195955.653040844</v>
+        <v>2952675.633898784</v>
       </c>
       <c r="C51" t="n">
-        <v>2206226.500343485</v>
+        <v>3088150.999961571</v>
       </c>
       <c r="D51" t="n">
-        <v>2216336.840265835</v>
+        <v>3085341.118553081</v>
       </c>
       <c r="E51" t="n">
-        <v>2226305.375208577</v>
+        <v>3173866.62518499</v>
       </c>
       <c r="F51" t="n">
-        <v>2236020.132645042</v>
+        <v>3203673.078430528</v>
       </c>
       <c r="G51" t="n">
-        <v>2245643.429807493</v>
+        <v>3212437.791363588</v>
       </c>
       <c r="H51" t="n">
-        <v>2254984.725778656</v>
+        <v>3446421.433882177</v>
       </c>
       <c r="I51" t="n">
-        <v>2264130.184015591</v>
+        <v>3488391.832101413</v>
       </c>
       <c r="J51" t="n">
-        <v>2273217.763936931</v>
+        <v>3673091.927764184</v>
       </c>
       <c r="K51" t="n">
-        <v>2282014.155931634</v>
+        <v>3591590.966250346</v>
       </c>
       <c r="L51" t="n">
-        <v>2290556.25180585</v>
+        <v>3623232.014725218</v>
       </c>
       <c r="M51" t="n">
-        <v>2299218.591602423</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2213799.721141589</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2811921.2508186</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1806690.759940338</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2802494.322960564</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2306591.295253714</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2891542.013214318</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2495278.065119164</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2096239.179206872</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2435620.204178663</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2281376.265649657</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2893822.136638338</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2928662.87571248</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1194829.912872513</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1194818.750723643</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1194958.566058014</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1195052.994349205</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1195003.020350964</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1195103.713321066</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1195135.641887206</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1195281.114295137</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1195469.097386681</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1195334.730692145</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1195424.575747453</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1195478.846685529</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1627760.57784695</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1347354.233895546</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1366969.945345412</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1542479.739914657</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1264953.993785547</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1321015.198349237</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1330940.122376062</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1895429.055764765</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1639957.165562466</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1755731.573261302</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1571589.392792409</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1699191.524879151</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4284341.907904651</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4600097.4287221</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3989965.204180455</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4870921.914340393</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4370384.296409708</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3870402.87080661</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3451271.499463554</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3429457.063679267</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4487193.236361259</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4075355.45719085</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3610256.013578522</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3753223.048331821</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3822274.600464672</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3724256.548710635</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4399558.98071533</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3915337.686449176</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3378917.067200499</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3965538.721883172</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2909232.842874941</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3801880.389090085</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3593988.553012802</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3843224.530317344</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4205399.049073743</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3893190.248142254</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4843841.407371882</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4778636.31892251</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4523821.117596669</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5637325.061643085</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4092119.649919359</v>
-      </c>
-      <c r="G57" t="n">
-        <v>4418098.963653414</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4051585.895577984</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3756183.025738497</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5444503.351896753</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5412211.834193371</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5685790.899130441</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5783928.109989714</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5063491.433950764</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5368711.187974969</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5518157.937904899</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5873627.895651711</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5438479.80211971</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5773564.054552189</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4810735.279496079</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5040122.866531691</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5881786.50021707</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5762072.262823357</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5812682.503475898</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6065903.167002646</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3110880.459999108</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2947456.367145615</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3235258.56333722</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3255947.418560093</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2867372.134851092</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3774808.182072848</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3265162.784918698</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2359355.924532825</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3208574.954748058</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3730650.905590397</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2930773.118229616</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3277724.208777838</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4214906.183654889</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4155412.526794137</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4701517.780772207</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4794490.142935874</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4500953.339597285</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4205992.380200726</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3605177.737352978</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3774094.768514114</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4292623.934785299</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4045936.237600482</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4369432.230993817</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4502058.728082174</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2804259.948507932</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2745104.553497909</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2515135.264748353</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3221078.523875518</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3358411.124152526</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3886476.474425889</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2194219.358999267</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2324549.578154749</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3537744.071580118</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3465945.794425424</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3236624.552832977</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2995164.715384816</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5666397.849388067</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5062589.417021649</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5559732.435851844</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5281639.341980119</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5008881.485829188</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5744129.066996969</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4294809.382619561</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4574224.179092062</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5169639.619136956</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4561849.348812668</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4828554.552330873</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5522395.941856865</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3516484.548604239</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3426760.223105754</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3748927.576188014</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2965500.699806817</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3509033.035678177</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3375360.913987712</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2647754.085640291</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2998143.741782488</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3454184.86856973</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3724539.376031389</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3486802.649620622</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3073265.24718899</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2080181.081744099</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2091942.367673361</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2226452.984859471</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2487155.017291729</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1904953.981877555</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2066045.791969313</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1709573.182848576</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1933571.400317379</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2717719.623300075</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1970646.510924152</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2169822.556355557</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2065533.05069461</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1667524.266963831</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1662571.792044793</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1658684.350869684</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1655573.269841791</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1652988.65782846</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1651041.935588408</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1649461.500478785</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1648175.762009582</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1647188.665834369</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1646397.405052716</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1645680.00364477</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1645042.690722089</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5119336.75655843</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5310111.028898891</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5806514.780066181</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5539751.193727563</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4980395.330343802</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5432143.987306357</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5161446.131523569</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4811227.114835406</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5315499.842686553</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5623086.056261877</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4760467.862945609</v>
-      </c>
-      <c r="M66" t="n">
-        <v>4896984.841029222</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>693606.5489789798</v>
-      </c>
-      <c r="C67" t="n">
-        <v>659498.5585624555</v>
-      </c>
-      <c r="D67" t="n">
-        <v>811038.7413335569</v>
-      </c>
-      <c r="E67" t="n">
-        <v>569725.6939043385</v>
-      </c>
-      <c r="F67" t="n">
-        <v>631030.5027138632</v>
-      </c>
-      <c r="G67" t="n">
-        <v>730688.3635019492</v>
-      </c>
-      <c r="H67" t="n">
-        <v>602297.1954988884</v>
-      </c>
-      <c r="I67" t="n">
-        <v>793394.5192951692</v>
-      </c>
-      <c r="J67" t="n">
-        <v>962061.7250184708</v>
-      </c>
-      <c r="K67" t="n">
-        <v>890084.0457796622</v>
-      </c>
-      <c r="L67" t="n">
-        <v>671778.9780129747</v>
-      </c>
-      <c r="M67" t="n">
-        <v>722725.0928930246</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2854043.55464741</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2952413.082747392</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3048771.759938685</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3143225.498788499</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3235836.835749817</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3326600.679715563</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3415414.260160559</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3502608.123575092</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3588050.624370191</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3671793.626344497</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3753764.98204681</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3834239.37287715</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3076203.814708848</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3198315.699306378</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3374397.463841999</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3390095.715687101</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3506089.883528716</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3556566.488819155</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3582356.443862952</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3863710.234925605</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3940254.146913367</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4161186.477267536</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4095200.288088932</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4136906.702767598</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7491204.16606198</v>
-      </c>
-      <c r="C70" t="n">
-        <v>7511922.455959661</v>
-      </c>
-      <c r="D70" t="n">
-        <v>7532653.55461004</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7552504.199762054</v>
-      </c>
-      <c r="F70" t="n">
-        <v>7572016.079594629</v>
-      </c>
-      <c r="G70" t="n">
-        <v>7591314.736004944</v>
-      </c>
-      <c r="H70" t="n">
-        <v>7609900.714380792</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7628442.567907472</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7646367.382242406</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7664395.745515264</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7681624.005389451</v>
-      </c>
-      <c r="M70" t="n">
-        <v>7698921.885234509</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>17471684.9205706</v>
-      </c>
-      <c r="C71" t="n">
-        <v>18957670.09850761</v>
-      </c>
-      <c r="D71" t="n">
-        <v>20377153.08181521</v>
-      </c>
-      <c r="E71" t="n">
-        <v>20708146.97126574</v>
-      </c>
-      <c r="F71" t="n">
-        <v>23417971.18860188</v>
-      </c>
-      <c r="G71" t="n">
-        <v>45687895.49538864</v>
-      </c>
-      <c r="H71" t="n">
-        <v>13531960.12181144</v>
-      </c>
-      <c r="I71" t="n">
-        <v>24635899.79775996</v>
-      </c>
-      <c r="J71" t="n">
-        <v>23790045.4881797</v>
-      </c>
-      <c r="K71" t="n">
-        <v>26486012.19006583</v>
-      </c>
-      <c r="L71" t="n">
-        <v>31092056.97283404</v>
-      </c>
-      <c r="M71" t="n">
-        <v>28925242.14204668</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3824878.622007602</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2519401.355812164</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3368979.656610183</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1398931.778990016</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4215517.951276343</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2141505.535012161</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1831712.316471704</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3878458.67226459</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4325310.729027907</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2872502.687064997</v>
-      </c>
-      <c r="L72" t="n">
-        <v>7473173.572938959</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1461008.714263914</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>8993644.222727748</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9034971.40167894</v>
-      </c>
-      <c r="D73" t="n">
-        <v>9075521.141160803</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9115754.288426602</v>
-      </c>
-      <c r="F73" t="n">
-        <v>9154140.151649408</v>
-      </c>
-      <c r="G73" t="n">
-        <v>9192951.481794041</v>
-      </c>
-      <c r="H73" t="n">
-        <v>9230063.103341645</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9267845.743519535</v>
-      </c>
-      <c r="J73" t="n">
-        <v>9303974.091103105</v>
-      </c>
-      <c r="K73" t="n">
-        <v>9338179.982214311</v>
-      </c>
-      <c r="L73" t="n">
-        <v>9373222.554033071</v>
-      </c>
-      <c r="M73" t="n">
-        <v>9406339.54294228</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>19407809.68320343</v>
-      </c>
-      <c r="C74" t="n">
-        <v>18897971.56669945</v>
-      </c>
-      <c r="D74" t="n">
-        <v>22342317.89071538</v>
-      </c>
-      <c r="E74" t="n">
-        <v>20304136.19661852</v>
-      </c>
-      <c r="F74" t="n">
-        <v>20545322.81031713</v>
-      </c>
-      <c r="G74" t="n">
-        <v>27623889.02359554</v>
-      </c>
-      <c r="H74" t="n">
-        <v>14739074.33168401</v>
-      </c>
-      <c r="I74" t="n">
-        <v>18934488.0084315</v>
-      </c>
-      <c r="J74" t="n">
-        <v>19880205.84979871</v>
-      </c>
-      <c r="K74" t="n">
-        <v>19556348.52658963</v>
-      </c>
-      <c r="L74" t="n">
-        <v>18656984.75966488</v>
-      </c>
-      <c r="M74" t="n">
-        <v>21473506.03259848</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>26010349.19559583</v>
-      </c>
-      <c r="C75" t="n">
-        <v>27500439.65922458</v>
-      </c>
-      <c r="D75" t="n">
-        <v>26205380.9793888</v>
-      </c>
-      <c r="E75" t="n">
-        <v>25622323.62604109</v>
-      </c>
-      <c r="F75" t="n">
-        <v>25645138.32183072</v>
-      </c>
-      <c r="G75" t="n">
-        <v>35215256.603701</v>
-      </c>
-      <c r="H75" t="n">
-        <v>19479836.79301475</v>
-      </c>
-      <c r="I75" t="n">
-        <v>19758236.25296742</v>
-      </c>
-      <c r="J75" t="n">
-        <v>27536339.33404118</v>
-      </c>
-      <c r="K75" t="n">
-        <v>26728225.47869934</v>
-      </c>
-      <c r="L75" t="n">
-        <v>30140921.07256544</v>
-      </c>
-      <c r="M75" t="n">
-        <v>31220623.17428111</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>14755050.29945796</v>
-      </c>
-      <c r="C76" t="n">
-        <v>15511390.86816046</v>
-      </c>
-      <c r="D76" t="n">
-        <v>16116613.45258319</v>
-      </c>
-      <c r="E76" t="n">
-        <v>16600745.38549257</v>
-      </c>
-      <c r="F76" t="n">
-        <v>16987898.44627842</v>
-      </c>
-      <c r="G76" t="n">
-        <v>17297921.71772645</v>
-      </c>
-      <c r="H76" t="n">
-        <v>17545264.8177148</v>
-      </c>
-      <c r="I76" t="n">
-        <v>17744108.23534208</v>
-      </c>
-      <c r="J76" t="n">
-        <v>17902990.52773056</v>
-      </c>
-      <c r="K76" t="n">
-        <v>18029734.61892134</v>
-      </c>
-      <c r="L76" t="n">
-        <v>18130988.86931136</v>
-      </c>
-      <c r="M76" t="n">
-        <v>18211966.52456512</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>17434136.59432862</v>
-      </c>
-      <c r="C77" t="n">
-        <v>18288729.17145229</v>
-      </c>
-      <c r="D77" t="n">
-        <v>19126534.27106011</v>
-      </c>
-      <c r="E77" t="n">
-        <v>19947388.6056742</v>
-      </c>
-      <c r="F77" t="n">
-        <v>20751409.28847098</v>
-      </c>
-      <c r="G77" t="n">
-        <v>21539225.73643189</v>
-      </c>
-      <c r="H77" t="n">
-        <v>22311939.39110683</v>
-      </c>
-      <c r="I77" t="n">
-        <v>23069321.13331776</v>
-      </c>
-      <c r="J77" t="n">
-        <v>23810835.15735243</v>
-      </c>
-      <c r="K77" t="n">
-        <v>24537954.50349171</v>
-      </c>
-      <c r="L77" t="n">
-        <v>25250162.27805111</v>
-      </c>
-      <c r="M77" t="n">
-        <v>25948788.91674288</v>
+        <v>3692256.118028339</v>
       </c>
     </row>
   </sheetData>
